--- a/taches.xlsx
+++ b/taches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>% réalisé</t>
   </si>
@@ -75,7 +75,34 @@
     <t>menu arborescent</t>
   </si>
   <si>
-    <t>service $tree + template of:tree| manque generation auto par id instance</t>
+    <t>Réalisation de la maquette : Référentiel</t>
+  </si>
+  <si>
+    <t>Encore quelques petits soucis, a voir en version suivante</t>
+  </si>
+  <si>
+    <t>N° redmine</t>
+  </si>
+  <si>
+    <t>#4905</t>
+  </si>
+  <si>
+    <t>#5066</t>
+  </si>
+  <si>
+    <t>#XXXX</t>
+  </si>
+  <si>
+    <t>#????</t>
+  </si>
+  <si>
+    <t>Tmp reel &lt; Tmp estimé</t>
+  </si>
+  <si>
+    <t>Tmp reel &gt; Tmp estimé</t>
+  </si>
+  <si>
+    <t>Tmp reel = Tmp estimé</t>
   </si>
 </sst>
 </file>
@@ -221,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +290,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,7 +307,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -568,57 +633,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.8" thickBot="1">
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.8" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -626,86 +695,95 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <f>B3+F3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="str">
-        <f>IF(D3=100%,B3+E3,IF(D3&gt;0,"En cours","A faire"))</f>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <f>B3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>IF(E3=100%,B3+F3,IF(E3&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <f>B4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="str">
-        <f>IF(D4=100%,B4+E4,IF(D4&gt;0,"En cours","A faire"))</f>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f>B4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>IF(E4=100%,B4+F4,IF(E4&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
-        <f>B5+F5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f>IF(D5=100%,B5+E5,IF(D5&gt;0,"En cours","A faire"))</f>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>B5+G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>IF(E5=100%,B5+F5,IF(E5&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -715,8 +793,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -726,8 +805,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -737,8 +817,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -748,8 +829,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -759,8 +841,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -770,8 +853,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -781,8 +865,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -792,8 +877,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -803,8 +889,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -814,8 +901,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -825,8 +913,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -836,8 +925,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -847,8 +937,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -858,8 +949,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -869,8 +961,9 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -880,8 +973,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -891,8 +985,9 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -902,8 +997,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -913,8 +1009,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -924,8 +1021,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -935,10 +1033,11 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -948,89 +1047,516 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.8" thickBot="1">
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.8" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6">
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="2"/>
       <c r="B3" s="12">
+        <v>42509</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <f>B3+G3</f>
+        <v>42511</v>
+      </c>
+      <c r="I3" s="14" t="str">
+        <f>IF(E3=100%,B3+F3,IF(E3&gt;0,"En cours","A faire"))</f>
+        <v>En cours</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H8" si="0">B4+G4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="str">
+        <f t="shared" ref="I4:I8" si="1">IF(E4=100%,B4+F4,IF(E4&gt;0,"En cours","A faire"))</f>
+        <v>A faire</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A faire</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ref="H9:H10" si="2">B9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="str">
+        <f t="shared" ref="I9:I10" si="3">IF(E9=100%,B9+F9,IF(E9&gt;0,"En cours","A faire"))</f>
+        <v>A faire</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A faire</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" ref="H11:H15" si="4">B11+G11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="str">
+        <f t="shared" ref="I11:I15" si="5">IF(E11=100%,B11+F11,IF(E11&gt;0,"En cours","A faire"))</f>
+        <v>A faire</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A faire</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D15">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>F3&lt;G3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>F3&gt;G3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>F3=G3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.8" thickBot="1">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
+      <c r="B3" s="12">
         <v>42492</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2.5</v>
+      <c r="E3" s="13">
+        <v>1</v>
       </c>
       <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="14">
-        <f>B3+F3</f>
+      <c r="H3" s="14">
+        <f>B3+G3</f>
         <v>42495</v>
       </c>
-      <c r="H3" s="14" t="str">
-        <f>IF(D3=100%,B3+E3,IF(D3&gt;0,"En cours","A faire"))</f>
-        <v>En cours</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
+      <c r="I3" s="14">
+        <v>42508</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1038,126 +1564,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.8" thickBot="1">
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1167,8 +1576,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1178,8 +1588,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1189,8 +1600,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1200,8 +1612,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1211,8 +1624,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1222,8 +1636,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1233,8 +1648,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1244,8 +1660,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1255,8 +1672,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1266,8 +1684,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1277,8 +1696,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1288,8 +1708,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1299,8 +1720,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1310,8 +1732,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1321,8 +1744,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1332,8 +1756,9 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1343,8 +1768,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1354,8 +1780,9 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1365,8 +1792,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1376,8 +1804,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1387,8 +1816,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1398,11 +1828,24 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:E15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/taches.xlsx
+++ b/taches.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1115,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="13">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>

--- a/taches.xlsx
+++ b/taches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>% réalisé</t>
   </si>
@@ -72,9 +72,6 @@
     <t>[write comments]</t>
   </si>
   <si>
-    <t>menu arborescent</t>
-  </si>
-  <si>
     <t>Réalisation de la maquette : Référentiel</t>
   </si>
   <si>
@@ -103,6 +100,36 @@
   </si>
   <si>
     <t>Tmp reel = Tmp estimé</t>
+  </si>
+  <si>
+    <t>Attente de framkit-ui, pour utiliser le tableau de Julien.</t>
+  </si>
+  <si>
+    <t>Ajout de mes composants sur framkit</t>
+  </si>
+  <si>
+    <t>Intégration framkit dans of</t>
+  </si>
+  <si>
+    <t>#5112</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>#5114</t>
+  </si>
+  <si>
+    <t>Menu arborescant</t>
+  </si>
+  <si>
+    <t>Correction du composant date-picker</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Correction tableau de résultats</t>
   </si>
 </sst>
 </file>
@@ -248,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +320,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,7 +337,177 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -646,24 +846,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="43.8" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -695,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -726,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -757,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1050,7 +1250,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1061,17 +1261,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="43.8" thickBot="1">
       <c r="A2" s="3"/>
@@ -1079,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1109,16 +1309,16 @@
         <v>42509</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -1131,35 +1331,44 @@
         <f>IF(E3=100%,B3+F3,IF(E3&gt;0,"En cours","A faire"))</f>
         <v>En cours</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <v>42524</v>
+      </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" ref="H4:H8" si="0">B4+G4</f>
-        <v>1</v>
+        <f>B4+G4</f>
+        <v>42526</v>
       </c>
       <c r="I4" s="14" t="str">
-        <f t="shared" ref="I4:I8" si="1">IF(E4=100%,B4+F4,IF(E4&gt;0,"En cours","A faire"))</f>
-        <v>A faire</v>
+        <f>IF(E4=100%,B4+F4,IF(E4&gt;0,"En cours","A faire"))</f>
+        <v>En cours</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <f ca="1">IF(ISBLANK(D5),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="13">
@@ -1172,18 +1381,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f ca="1">B5+G5</f>
+        <v>42535</v>
       </c>
       <c r="I5" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I7" si="0">IF(E5=100%,B5+F5,IF(E5&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <f ca="1">IF(ISBLANK(D6),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="13">
@@ -1196,18 +1408,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="14">
+        <f ca="1">B6+G6</f>
+        <v>42535</v>
+      </c>
+      <c r="I6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12">
+        <f ca="1">IF(ISBLANK(D7),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="13">
@@ -1220,18 +1435,20 @@
         <v>1</v>
       </c>
       <c r="H7" s="14">
+        <f ca="1">B7+G7</f>
+        <v>42535</v>
+      </c>
+      <c r="I7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="str">
-        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12">
+        <f ca="1">IF(ISBLANK(D8),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
       <c r="E8" s="13">
@@ -1244,17 +1461,20 @@
         <v>1</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f ca="1">B8+G8</f>
+        <v>42535</v>
       </c>
       <c r="I8" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I8:I10" si="1">IF(E8=100%,B8+F8,IF(E8&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="12"/>
+      <c r="B9" s="12">
+        <f ca="1">IF(ISBLANK(D9),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
@@ -1267,17 +1487,20 @@
         <v>1</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" ref="H9:H10" si="2">B9+G9</f>
-        <v>1</v>
+        <f ca="1">B9+G9</f>
+        <v>42535</v>
       </c>
       <c r="I9" s="14" t="str">
-        <f t="shared" ref="I9:I10" si="3">IF(E9=100%,B9+F9,IF(E9&gt;0,"En cours","A faire"))</f>
+        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="12"/>
+      <c r="B10" s="12">
+        <f ca="1">IF(ISBLANK(D10),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13">
@@ -1290,17 +1513,20 @@
         <v>1</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f ca="1">B10+G10</f>
+        <v>42535</v>
       </c>
       <c r="I10" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>A faire</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="12"/>
+      <c r="B11" s="12">
+        <f ca="1">IF(ISBLANK(D11),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
       <c r="E11" s="13">
@@ -1313,18 +1539,21 @@
         <v>1</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" ref="H11:H15" si="4">B11+G11</f>
-        <v>1</v>
+        <f ca="1">B11+G11</f>
+        <v>42535</v>
       </c>
       <c r="I11" s="14" t="str">
-        <f t="shared" ref="I11:I15" si="5">IF(E11=100%,B11+F11,IF(E11&gt;0,"En cours","A faire"))</f>
+        <f t="shared" ref="I11:I15" si="2">IF(E11=100%,B11+F11,IF(E11&gt;0,"En cours","A faire"))</f>
         <v>A faire</v>
       </c>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12">
+        <f ca="1">IF(ISBLANK(D12),TODAY(),"")</f>
+        <v>42534</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13">
@@ -1337,21 +1566,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f ca="1">B12+G12</f>
+        <v>42535</v>
       </c>
       <c r="I12" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12">
+        <f ca="1">TODAY()</f>
+        <v>42534</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1363,47 +1595,53 @@
         <v>1</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f ca="1">B13+G13</f>
+        <v>42535</v>
       </c>
       <c r="I13" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12">
+        <f ca="1">TODAY()</f>
+        <v>42534</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f ca="1">B14+G14</f>
+        <v>42535</v>
       </c>
       <c r="I14" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12">
+        <f ca="1">TODAY()</f>
+        <v>42534</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1415,11 +1653,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f ca="1">B15+G15</f>
+        <v>42534</v>
       </c>
       <c r="I15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>A faire</v>
       </c>
       <c r="J15" s="11"/>
@@ -1475,7 +1713,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1485,24 +1723,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="43.8" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1531,10 +1769,10 @@
         <v>42492</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -1553,42 +1791,99 @@
         <v>42508</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="B4" s="12">
+        <v>42522</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <f>B4+G4</f>
+        <v>42524</v>
+      </c>
+      <c r="I4" s="14">
+        <f>IF(E4=100%,B4+F4,IF(E4&gt;0,"En cours","A faire"))</f>
+        <v>42523.5</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="B5" s="12">
+        <v>42523</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <f>B5+G5</f>
+        <v>42524</v>
+      </c>
+      <c r="I5" s="14">
+        <f>IF(E5=100%,B5+F5,IF(E5&gt;0,"En cours","A faire"))</f>
+        <v>42523.5</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="12">
+        <v>42524</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <f>B6+G6</f>
+        <v>42525</v>
+      </c>
+      <c r="I6" s="14">
+        <f>IF(E6=100%,B6+F6,IF(E6&gt;0,"En cours","A faire"))</f>
+        <v>42525</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
@@ -1835,7 +2130,7 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E15">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -1846,6 +2141,94 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>F4&lt;G4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>F4&gt;G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>F4=G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>F5&lt;G5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>F5&gt;G5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>F5=G5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>F3&lt;G3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>F3&gt;G3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>F3=G3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>F6&lt;G6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>F6&gt;G6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>F6=G6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>